--- a/PASS/PASS 03-12-25.xlsx
+++ b/PASS/PASS 03-12-25.xlsx
@@ -349,6 +349,9 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -357,9 +360,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -667,7 +667,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -682,45 +682,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -746,7 +746,7 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -772,7 +772,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -798,7 +798,7 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -824,7 +824,7 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -850,7 +850,7 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -876,7 +876,7 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -902,7 +902,7 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -928,7 +928,7 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -954,7 +954,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -980,7 +980,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -1006,7 +1006,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1032,7 +1032,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1058,7 +1058,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -1084,7 +1084,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1110,7 +1110,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
